--- a/src/main/java/util/excelfile/Input.xlsx
+++ b/src/main/java/util/excelfile/Input.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caohieu/Downloads/Hotel-Booking-master/hotel/src/main/java/util/excelfile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04205EF7-AB8D-8D43-AE53-4048C4BCFA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AA5CC4-2C2B-9F4B-AE26-838A81E795D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{435D7EF1-BED0-9945-BD41-CCBAB89FE1E8}"/>
+    <workbookView xWindow="3620" yWindow="920" windowWidth="28040" windowHeight="17440" xr2:uid="{435D7EF1-BED0-9945-BD41-CCBAB89FE1E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Client insert" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>ID CARD</t>
   </si>
@@ -107,6 +109,39 @@
   </si>
   <si>
     <t>0909628755</t>
+  </si>
+  <si>
+    <t>13142543</t>
+  </si>
+  <si>
+    <t>12345244</t>
+  </si>
+  <si>
+    <t>34523432</t>
+  </si>
+  <si>
+    <t>54321445</t>
+  </si>
+  <si>
+    <t>34253553</t>
+  </si>
+  <si>
+    <t>34325235</t>
+  </si>
+  <si>
+    <t>0909628756</t>
+  </si>
+  <si>
+    <t>0909628757</t>
+  </si>
+  <si>
+    <t>0909628758</t>
+  </si>
+  <si>
+    <t>0909628759</t>
+  </si>
+  <si>
+    <t>0909628760</t>
   </si>
 </sst>
 </file>
@@ -115,9 +150,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="00000"/>
-    <numFmt numFmtId="166" formatCode="[&lt;=999999][$-1000000]###\-###;[$-1000000]\(##\)\ ###\-###"/>
+    <numFmt numFmtId="165" formatCode="[&lt;=999999][$-1000000]###\-###;[$-1000000]\(##\)\ ###\-###"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -170,6 +205,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -192,7 +233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -211,9 +252,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -224,10 +262,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -236,21 +284,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="22"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -269,6 +302,21 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -283,10 +331,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{03D3CE69-2CEF-F844-B02E-261D21C4573E}" name="Table3" displayName="Table3" ref="A1:F23" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{03D3CE69-2CEF-F844-B02E-261D21C4573E}" name="Table3" displayName="Table3" ref="A1:F23" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:F23" xr:uid="{03D3CE69-2CEF-F844-B02E-261D21C4573E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D8D3F138-CC12-C647-B3E1-6E3CE737C9F6}" name="FULL NAME" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{D8D3F138-CC12-C647-B3E1-6E3CE737C9F6}" name="FULL NAME" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{5DA00160-89AB-8245-A359-88F5C3271DDF}" name="ADDRESS"/>
     <tableColumn id="3" xr3:uid="{C641F504-D127-9A41-BC69-02B30E56E352}" name="TELEPHONE"/>
     <tableColumn id="4" xr3:uid="{552C54B0-3FB1-C44F-86D0-A655A2634CCD}" name="ID CARD"/>
@@ -597,12 +645,12 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="34.1640625" customWidth="1"/>
     <col min="4" max="4" width="32.1640625" customWidth="1"/>
@@ -617,7 +665,7 @@
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -637,13 +685,13 @@
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="4">
-        <v>13142543</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="4"/>
@@ -655,11 +703,13 @@
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="4">
-        <v>12345244</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="C3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="4"/>
@@ -671,9 +721,11 @@
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="4">
-        <v>34523432</v>
+      <c r="C4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>14</v>
@@ -687,11 +739,13 @@
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="4">
-        <v>54321445</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="C5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="4"/>
@@ -703,11 +757,13 @@
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="4">
-        <v>34253553</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="C6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="4"/>
@@ -719,11 +775,13 @@
       <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="4">
-        <v>34325235</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="C7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="4"/>
@@ -731,100 +789,107 @@
     <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="4"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="7"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="5"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="6"/>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="C16" s="12"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="C17" s="12"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="C18" s="12"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="C19" s="12"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="C20" s="12"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="C21" s="12"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="C22" s="12"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" ht="26" x14ac:dyDescent="0.3">
@@ -844,6 +909,7 @@
       <c r="A27" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{D7E349E5-4D39-5A40-A001-ECA4BB6F8E71}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{A2E8E5F3-1F52-6C45-AF7A-1E340ADC2BE2}"/>
@@ -857,4 +923,28 @@
     <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672CA5DC-2E5F-CB45-A852-7B39747F42FE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72210C9E-BABF-C645-A08E-0520C531DA1A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>